--- a/cmip6/models/mpi-esm1-2-lr/cmip6_mpi-m_mpi-esm1-2-lr_ocnbgchem.xlsx
+++ b/cmip6/models/mpi-esm1-2-lr/cmip6_mpi-m_mpi-esm1-2-lr_ocnbgchem.xlsx
@@ -40,7 +40,7 @@
     <t>MPI-ESM1-2-LR</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Ocean Biogeochemistry</t>

--- a/cmip6/models/mpi-esm1-2-lr/cmip6_mpi-m_mpi-esm1-2-lr_ocnbgchem.xlsx
+++ b/cmip6/models/mpi-esm1-2-lr/cmip6_mpi-m_mpi-esm1-2-lr_ocnbgchem.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="429">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -142,6 +142,9 @@
     <t>cmip6.ocnbgchem.key_properties.name</t>
   </si>
   <si>
+    <t>Hamburg Model of Ocean Carbon Cycle</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>HAMOCC is a sub-model that simulates biogeochemical tracers in the oceanic water column and in the sediment.  All biogeochemical tracers are fully advected and mixed by the hosting OGCM (MPIOM). The biogeochemical model itself is driven by the same radiation as the OGCM to compute photosynthesis. Temperature and salinity are used to calculate various transformation rates and constants e.g., for solubility of carbon dioxide.</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -187,13 +193,13 @@
     <t>cmip6.ocnbgchem.key_properties.model_type</t>
   </si>
   <si>
-    <t>Geochemical</t>
-  </si>
-  <si>
-    <t>NPZD</t>
-  </si>
-  <si>
-    <t>PFT</t>
+    <t>Geochemical: No living compartments</t>
+  </si>
+  <si>
+    <t>NPZD: No plankton types</t>
+  </si>
+  <si>
+    <t>PFT: Several plankton types</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -211,13 +217,13 @@
     <t>cmip6.ocnbgchem.key_properties.elemental_stoichiometry</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Mix of both</t>
+    <t>Fixed: Fixed stoichiometry</t>
+  </si>
+  <si>
+    <t>Variable: Variable stoichiometry</t>
+  </si>
+  <si>
+    <t>Mix of both: Both fixed and mixed stoichiometry</t>
   </si>
   <si>
     <t>1.1.1.6 *</t>
@@ -244,6 +250,9 @@
     <t>cmip6.ocnbgchem.key_properties.prognostic_variables</t>
   </si>
   <si>
+    <t>Total dissolved inorganic 12C kmol C m−3</t>
+  </si>
+  <si>
     <t>1.1.1.8 *</t>
   </si>
   <si>
@@ -292,7 +301,10 @@
     <t>Use ocean model transport time step</t>
   </si>
   <si>
-    <t>Use specific time step</t>
+    <t>use ocean model transport time step</t>
+  </si>
+  <si>
+    <t>use specific time step</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.2.2 </t>
@@ -412,15 +424,18 @@
     <t>cmip6.ocnbgchem.key_properties.boundary_forcing.atmospheric_deposition</t>
   </si>
   <si>
-    <t>From file (climatology)</t>
-  </si>
-  <si>
-    <t>From file (interannual variations)</t>
-  </si>
-  <si>
     <t>From Atmospheric Chemistry model</t>
   </si>
   <si>
+    <t>from file (climatology)</t>
+  </si>
+  <si>
+    <t>from file (interannual variations)</t>
+  </si>
+  <si>
+    <t>from Atmospheric Chemistry model</t>
+  </si>
+  <si>
     <t>1.3.1.2 *</t>
   </si>
   <si>
@@ -433,7 +448,7 @@
     <t>cmip6.ocnbgchem.key_properties.boundary_forcing.river_input</t>
   </si>
   <si>
-    <t>From Land Surface model</t>
+    <t>from Land Surface model</t>
   </si>
   <si>
     <t xml:space="preserve">1.3.1.3 </t>
@@ -496,6 +511,9 @@
     <t>cmip6.ocnbgchem.key_properties.gas_exchange.CO2_exchange_type</t>
   </si>
   <si>
+    <t>Other: wanninkhof</t>
+  </si>
+  <si>
     <t>OMIP protocol</t>
   </si>
   <si>
@@ -547,6 +565,9 @@
     <t>cmip6.ocnbgchem.key_properties.gas_exchange.DMS_exchange_type</t>
   </si>
   <si>
+    <t>Wanninkhof</t>
+  </si>
+  <si>
     <t>1.4.1.7 *</t>
   </si>
   <si>
@@ -760,12 +781,12 @@
     <t>cmip6.ocnbgchem.key_properties.carbon_chemistry.ph_scale</t>
   </si>
   <si>
+    <t>Free</t>
+  </si>
+  <si>
     <t>Sea water</t>
   </si>
   <si>
-    <t>Free</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.5.1.3 </t>
   </si>
   <si>
@@ -985,13 +1006,13 @@
     <t>cmip6.ocnbgchem.tracers.ecosystem.phytoplankton.type</t>
   </si>
   <si>
+    <t>Generic</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Generic</t>
-  </si>
-  <si>
-    <t>PFT including size based (specify both below)</t>
+    <t>PFT including size based (specify both below): Plankton functional type including size based</t>
   </si>
   <si>
     <t>Size based only (specify below)</t>
@@ -1111,13 +1132,16 @@
     <t>cmip6.ocnbgchem.tracers.disolved_organic_matter.lability</t>
   </si>
   <si>
-    <t>Labile</t>
-  </si>
-  <si>
-    <t>Semi-labile</t>
-  </si>
-  <si>
-    <t>Refractory</t>
+    <t>Other: yes</t>
+  </si>
+  <si>
+    <t>Labile: Less than a few days</t>
+  </si>
+  <si>
+    <t>Semi-labile: Few days to a few years</t>
+  </si>
+  <si>
+    <t>Refractory: Over a few years</t>
   </si>
   <si>
     <t>2.4.1</t>
@@ -1138,6 +1162,9 @@
     <t>cmip6.ocnbgchem.tracers.particules.method</t>
   </si>
   <si>
+    <t>Prognostic</t>
+  </si>
+  <si>
     <t>Diagnostic</t>
   </si>
   <si>
@@ -1145,9 +1172,6 @@
   </si>
   <si>
     <t>Diagnostic (Balast)</t>
-  </si>
-  <si>
-    <t>Prognostic</t>
   </si>
   <si>
     <t xml:space="preserve">2.4.1.2 </t>
@@ -2028,14 +2052,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2043,15 +2069,15 @@
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -2059,10 +2085,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2070,91 +2096,93 @@
         <v>38</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -2162,15 +2190,15 @@
         <v>38</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -2178,10 +2206,10 @@
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -2189,26 +2217,28 @@
         <v>38</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="B33" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -2216,15 +2246,15 @@
         <v>38</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -2232,10 +2262,10 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -2243,10 +2273,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -2254,62 +2284,64 @@
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="24" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
-      <c r="B51" s="11"/>
+      <c r="B51" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="AA51" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
@@ -2317,62 +2349,62 @@
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
       <c r="A62" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="24" customHeight="1">
@@ -2380,79 +2412,79 @@
     </row>
     <row r="70" spans="1:28" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="24" customHeight="1">
       <c r="B71" s="13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:28" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:28" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="24" customHeight="1">
       <c r="B79" s="11"/>
       <c r="AA79" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:29" ht="24" customHeight="1">
@@ -2460,15 +2492,15 @@
         <v>38</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:29" ht="24" customHeight="1">
       <c r="B83" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="178" customHeight="1">
@@ -2476,85 +2508,87 @@
     </row>
     <row r="87" spans="1:29" ht="24" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="24" customHeight="1">
       <c r="B88" s="13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:29" ht="24" customHeight="1">
       <c r="A91" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:29" ht="24" customHeight="1">
-      <c r="B92" s="11"/>
+      <c r="B92" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="AA92" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AB92" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AC92" s="6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:29" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:29" ht="24" customHeight="1">
       <c r="A95" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:29" ht="24" customHeight="1">
       <c r="B96" s="11"/>
       <c r="AA96" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AB96" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -2562,15 +2596,15 @@
         <v>38</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
@@ -2578,10 +2612,10 @@
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -2589,15 +2623,15 @@
         <v>38</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -2605,145 +2639,155 @@
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="B110" s="13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="24" customHeight="1">
       <c r="A113" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
+      <c r="B114" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:28" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
-      <c r="B118" s="11"/>
+      <c r="B118" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="AA118" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="24" customHeight="1">
       <c r="A120" s="9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="24" customHeight="1">
       <c r="A121" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
+      <c r="B122" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:28" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
+      <c r="B126" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="AA126" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AB126" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
+      <c r="B130" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -2751,43 +2795,47 @@
         <v>38</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="B134" s="11"/>
+      <c r="B134" s="11" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
       <c r="A136" s="9" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="B138" s="11"/>
+      <c r="B138" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="A140" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
@@ -2795,43 +2843,47 @@
         <v>38</v>
       </c>
       <c r="B141" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1">
+      <c r="B142" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="B142" s="11"/>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
       <c r="A145" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="B146" s="11"/>
+      <c r="B146" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
       <c r="A148" s="9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -2839,32 +2891,34 @@
         <v>38</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="11"/>
+      <c r="B150" s="11" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
@@ -2872,10 +2926,10 @@
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
@@ -2883,10 +2937,10 @@
         <v>38</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -2894,21 +2948,21 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -2916,10 +2970,10 @@
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
@@ -2927,10 +2981,10 @@
         <v>38</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -2938,21 +2992,21 @@
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="24" customHeight="1">
       <c r="A169" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
@@ -2960,10 +3014,10 @@
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
       <c r="A172" s="9" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
@@ -2971,10 +3025,10 @@
         <v>38</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="24" customHeight="1">
@@ -2982,21 +3036,21 @@
     </row>
     <row r="176" spans="1:3" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="24" customHeight="1">
       <c r="A177" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="24" customHeight="1">
@@ -3004,10 +3058,10 @@
     </row>
     <row r="180" spans="1:3" ht="24" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="24" customHeight="1">
@@ -3015,10 +3069,10 @@
         <v>38</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="24" customHeight="1">
@@ -3026,21 +3080,21 @@
     </row>
     <row r="184" spans="1:3" ht="24" customHeight="1">
       <c r="A184" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="24" customHeight="1">
       <c r="A185" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="24" customHeight="1">
@@ -3048,10 +3102,10 @@
     </row>
     <row r="188" spans="1:3" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="24" customHeight="1">
@@ -3059,10 +3113,10 @@
         <v>38</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="24" customHeight="1">
@@ -3070,10 +3124,10 @@
     </row>
     <row r="192" spans="1:3" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="193" spans="1:29" ht="24" customHeight="1">
@@ -3081,10 +3135,10 @@
         <v>38</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="194" spans="1:29" ht="24" customHeight="1">
@@ -3092,82 +3146,84 @@
     </row>
     <row r="197" spans="1:29" ht="24" customHeight="1">
       <c r="A197" s="12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="198" spans="1:29" ht="24" customHeight="1">
       <c r="B198" s="13" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200" spans="1:29" ht="24" customHeight="1">
       <c r="A200" s="9" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="201" spans="1:29" ht="24" customHeight="1">
       <c r="A201" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="202" spans="1:29" ht="24" customHeight="1">
       <c r="B202" s="11"/>
       <c r="AA202" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AB202" s="6" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="204" spans="1:29" ht="24" customHeight="1">
       <c r="A204" s="9" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="205" spans="1:29" ht="24" customHeight="1">
       <c r="A205" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:29" ht="24" customHeight="1">
-      <c r="B206" s="11"/>
+      <c r="B206" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="AA206" s="6" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AB206" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AC206" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:29" ht="24" customHeight="1">
       <c r="A208" s="9" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="24" customHeight="1">
@@ -3175,15 +3231,15 @@
         <v>38</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="24" customHeight="1">
       <c r="B210" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="24" customHeight="1">
@@ -3191,23 +3247,23 @@
     </row>
     <row r="214" spans="1:3" ht="24" customHeight="1">
       <c r="A214" s="12" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="24" customHeight="1">
       <c r="B215" s="13" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="24" customHeight="1">
       <c r="A217" s="9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="24" customHeight="1">
@@ -3215,15 +3271,15 @@
         <v>38</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="24" customHeight="1">
       <c r="B219" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="178" customHeight="1">
@@ -3231,10 +3287,10 @@
     </row>
     <row r="222" spans="1:3" ht="24" customHeight="1">
       <c r="A222" s="9" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="24" customHeight="1">
@@ -3242,15 +3298,15 @@
         <v>38</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="24" customHeight="1">
       <c r="B224" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="24" customHeight="1">
@@ -3258,10 +3314,10 @@
     </row>
     <row r="227" spans="1:3" ht="24" customHeight="1">
       <c r="A227" s="9" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="24" customHeight="1">
@@ -3269,15 +3325,15 @@
         <v>38</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="24" customHeight="1">
       <c r="B229" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="24" customHeight="1">
@@ -3285,10 +3341,10 @@
     </row>
     <row r="232" spans="1:3" ht="24" customHeight="1">
       <c r="A232" s="9" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="24" customHeight="1">
@@ -3296,15 +3352,15 @@
         <v>38</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="24" customHeight="1">
       <c r="B234" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="24" customHeight="1">
@@ -3405,20 +3461,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>37</v>
@@ -3429,10 +3485,10 @@
         <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3440,10 +3496,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3451,15 +3507,15 @@
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3467,43 +3523,45 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -3514,38 +3572,38 @@
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -3556,32 +3614,32 @@
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -3592,34 +3650,34 @@
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -3627,10 +3685,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3638,10 +3696,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -3649,10 +3707,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -3660,71 +3718,73 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>329</v>
+      </c>
       <c r="AA50" s="6" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
@@ -3735,35 +3795,35 @@
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
@@ -3774,82 +3834,84 @@
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="11"/>
       <c r="AA60" s="6" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="24" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="B64" s="13" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
+      <c r="B68" s="11" t="s">
+        <v>329</v>
+      </c>
       <c r="AA68" s="6" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AD68" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3860,45 +3922,45 @@
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="B77" s="13" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="24" customHeight="1">
@@ -3906,71 +3968,73 @@
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="24" customHeight="1">
-      <c r="B85" s="11"/>
+      <c r="B85" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="AA85" s="6" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AB85" s="6" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AC85" s="6" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AD85" s="6" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AE85" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="24" customHeight="1">
       <c r="B89" s="13" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="A92" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="24" customHeight="1">
@@ -3979,40 +4043,42 @@
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
-      <c r="B94" s="11"/>
+      <c r="B94" s="11" t="s">
+        <v>381</v>
+      </c>
       <c r="AA94" s="6" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="24" customHeight="1">
       <c r="A97" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="24" customHeight="1">
@@ -4023,58 +4089,58 @@
     <row r="99" spans="1:31" ht="24" customHeight="1">
       <c r="B99" s="11"/>
       <c r="AA99" s="6" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="AB99" s="6" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="AC99" s="6" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AD99" s="6" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AE99" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="24" customHeight="1">
       <c r="B103" s="11"/>
       <c r="AA103" s="6" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="AB103" s="6" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AC103" s="6" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="24" customHeight="1">
@@ -4082,10 +4148,10 @@
         <v>38</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="24" customHeight="1">
@@ -4093,68 +4159,68 @@
     </row>
     <row r="109" spans="1:31" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="24" customHeight="1">
       <c r="B111" s="11"/>
       <c r="AA111" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AB111" s="6" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AC111" s="6" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AD111" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="24" customHeight="1">
       <c r="A114" s="12" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="24" customHeight="1">
       <c r="B115" s="13" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="24" customHeight="1">
@@ -4165,29 +4231,29 @@
     <row r="120" spans="1:28" ht="24" customHeight="1">
       <c r="B120" s="11"/>
       <c r="AA120" s="6" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AB120" s="6" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="24" customHeight="1">
       <c r="A122" s="9" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="24" customHeight="1">
       <c r="A123" s="14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:28" ht="24" customHeight="1">
@@ -4195,30 +4261,30 @@
     </row>
     <row r="126" spans="1:28" ht="24" customHeight="1">
       <c r="A126" s="9" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="24" customHeight="1">
       <c r="A127" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="24" customHeight="1">
       <c r="B128" s="11"/>
       <c r="AA128" s="6" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="AB128" s="6" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
